--- a/ДМС/Хакасия/Стоматология.xlsx
+++ b/ДМС/Хакасия/Стоматология.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinamoiseeva/PycharmProjects/ЧББ/ДМС/Хакасия/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\pythonProject\ДМС\Хакасия\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C6626E-8EA4-EF4D-836D-5C8C3E841907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C736BCC-810D-47BF-91AE-85DD1EB85F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="НБ-Хакасия+" sheetId="5" r:id="rId1"/>
+    <sheet name="НБ-Хакасия+" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'НБ-Хакасия+'!$A$1:$F$1</definedName>
     <definedName name="a.area">#REF!</definedName>
     <definedName name="b.area">#REF!</definedName>
   </definedNames>
@@ -90,9 +89,6 @@
     <t>8 (3902) 31-31-05  8 (3902) 29-40-22</t>
   </si>
   <si>
-    <t>https://rzd-medicine.ru </t>
-  </si>
-  <si>
     <t>https://avident19.ru/</t>
   </si>
   <si>
@@ -110,9 +106,6 @@
     <t>https://dental-service19.ru/</t>
   </si>
   <si>
-    <t>http://стомаэлита.рф/</t>
-  </si>
-  <si>
     <t xml:space="preserve"> +7 (3902) 35‒87‒80
  +7 (3902) 26‒40‒75</t>
   </si>
@@ -126,12 +119,18 @@
   <si>
     <t>https://klassic-dent.ru/</t>
   </si>
+  <si>
+    <t>http://xn--80aaxldluif1i.xn--p1ai/</t>
+  </si>
+  <si>
+    <t>https://rzd-medicine.ru/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +163,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -221,7 +213,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,6 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
@@ -253,373 +246,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A6EC74-5456-F681-D61D-9AD609DBF089}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8442960" y="4572000"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D033EC-D809-15D3-F1CA-25E76F0CD6EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12748260" y="4061460"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA22746-62D7-E56A-7D1C-5426313A96FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8442960" y="4762500"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E39F7195-31F2-1E01-E8DA-2BA02C667EDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8442960" y="5128260"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="152400" cy="152400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7B8F1A-1ED0-4322-860F-936473D4FEDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8442960" y="5494020"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="152400" cy="152400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F93439B-D1DD-4E37-B3E3-8F6DC99DAF7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8447314" y="3733800"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,22 +568,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCC0091-5557-470C-A966-93601C6D9AD8}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
-    <col min="3" max="5" width="37.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -977,7 +605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -990,14 +618,14 @@
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1008,16 +636,16 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1028,16 +656,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1048,16 +676,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1068,16 +696,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1088,27 +716,21 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://rzd-medicine.ru/address/nuz-otdelencheskaja-poliklinika-na-st-abakan-oao-rzhd-otdelencheskaja-poliklinika" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{FB89C536-EA12-4E4A-8136-0C24DD155BDF}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{2AD091DD-B6E6-483C-9F6F-EBBEB8F4C379}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1125,6 +747,65 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100E2008D7E4742AA41887FDC2E79A7A762" ma:contentTypeVersion="1" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="f9aaf2498e151e4c742fbf1c352ca431">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c95ad6c5f32494a945af1673268ec41" ns2:_="">
     <xsd:import namespace="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb"/>
@@ -1269,65 +950,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25D7794-8982-464B-8F1D-0C3EC06EF16B}">
   <ds:schemaRefs>
@@ -1345,6 +967,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D65DD3-3A63-45BF-A897-2BF76555CF21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71F0884-BE63-4CF6-875E-8F62E6BEA50D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1360,20 +998,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D65DD3-3A63-45BF-A897-2BF76555CF21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>